--- a/data/us/20-05-07 world o meter adjusted covid cases by state.xlsx
+++ b/data/us/20-05-07 world o meter adjusted covid cases by state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/us/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{07FA6438-19B4-411B-89CE-B9E856C5A9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{904E1FC1-2568-4C92-8D5D-59C0C3308AE6}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{07FA6438-19B4-411B-89CE-B9E856C5A9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{92A17286-6EF3-44D8-B06B-635C1A4257A4}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="780" windowWidth="22490" windowHeight="16480" activeTab="3" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
+    <workbookView xWindow="10635" yWindow="-17835" windowWidth="22485" windowHeight="16485" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Updates" sheetId="1" r:id="rId1"/>
@@ -729,12 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -758,6 +752,12 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1126,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB61549-E677-4976-9DCA-747A592A5594}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:J59"/>
     </sheetView>
   </sheetViews>
@@ -1139,22 +1139,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
       <c r="O1" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="P1" s="6"/>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
@@ -4854,27 +4854,27 @@
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="62">
+      <c r="B59" s="60">
         <v>66</v>
       </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62">
+      <c r="C59" s="60"/>
+      <c r="D59" s="60">
         <v>4</v>
       </c>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62">
+      <c r="E59" s="60"/>
+      <c r="F59" s="60">
         <v>11</v>
       </c>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="63">
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="61">
         <v>1046</v>
       </c>
-      <c r="J59" s="62"/>
-      <c r="K59" s="64"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="62"/>
       <c r="L59" s="55"/>
     </row>
   </sheetData>
@@ -4883,14 +4883,14 @@
     <mergeCell ref="Q1:U1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.worldometers.info/coronavirus/usa/new-jersey/" xr:uid="{DA38F66B-4FD9-4A74-AC73-F379D3569170}"/>
-    <hyperlink ref="A9" r:id="rId2" display="https://www.worldometers.info/coronavirus/usa/california/" xr:uid="{AA0196A9-621E-468C-834B-E5E5D5156896}"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://www.worldometers.info/coronavirus/usa/pennsylvania/" xr:uid="{9A78F1F4-2C63-4F6B-A3A7-679B40259EB1}"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.worldometers.info/coronavirus/usa/florida/" xr:uid="{E478452A-FAE6-4F32-82F5-6603CA3F3E48}"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://www.worldometers.info/coronavirus/usa/texas/" xr:uid="{69BA6D82-A2A9-45D8-8EFD-161FD3EF6848}"/>
-    <hyperlink ref="A16" r:id="rId6" display="https://www.worldometers.info/coronavirus/usa/louisiana/" xr:uid="{A5B6C7E9-1347-4C14-9A5C-4FA11548CA97}"/>
-    <hyperlink ref="A19" r:id="rId7" display="https://www.worldometers.info/coronavirus/usa/ohio/" xr:uid="{632E0BBE-B5DB-4A39-ABF3-DFEFB1BBD3B8}"/>
-    <hyperlink ref="A22" r:id="rId8" display="https://www.worldometers.info/coronavirus/usa/washington/" xr:uid="{EBB66A26-3C8A-4003-9E7E-8ED66C768ED4}"/>
+    <hyperlink ref="A22" r:id="rId1" display="https://www.worldometers.info/coronavirus/usa/washington/" xr:uid="{EBB66A26-3C8A-4003-9E7E-8ED66C768ED4}"/>
+    <hyperlink ref="A19" r:id="rId2" display="https://www.worldometers.info/coronavirus/usa/ohio/" xr:uid="{632E0BBE-B5DB-4A39-ABF3-DFEFB1BBD3B8}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.worldometers.info/coronavirus/usa/louisiana/" xr:uid="{A5B6C7E9-1347-4C14-9A5C-4FA11548CA97}"/>
+    <hyperlink ref="A13" r:id="rId4" display="https://www.worldometers.info/coronavirus/usa/texas/" xr:uid="{69BA6D82-A2A9-45D8-8EFD-161FD3EF6848}"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.worldometers.info/coronavirus/usa/florida/" xr:uid="{E478452A-FAE6-4F32-82F5-6603CA3F3E48}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://www.worldometers.info/coronavirus/usa/pennsylvania/" xr:uid="{9A78F1F4-2C63-4F6B-A3A7-679B40259EB1}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.worldometers.info/coronavirus/usa/california/" xr:uid="{AA0196A9-621E-468C-834B-E5E5D5156896}"/>
+    <hyperlink ref="A6" r:id="rId8" display="https://www.worldometers.info/coronavirus/usa/new-jersey/" xr:uid="{DA38F66B-4FD9-4A74-AC73-F379D3569170}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="K2" s="46"/>
       <c r="L2" s="45">
-        <f>IFERROR(B2/I2,0)</f>
+        <f t="shared" ref="L2:L33" si="0">IFERROR(B2/I2,0)</f>
         <v>7.7551129671271007E-2</v>
       </c>
       <c r="M2" s="48">
-        <f>IFERROR(H2/G2,0)</f>
+        <f t="shared" ref="M2:M27" si="1">IFERROR(H2/G2,0)</f>
         <v>3.9731393396754335E-2</v>
       </c>
     </row>
@@ -5025,11 +5025,11 @@
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="45">
-        <f>IFERROR(B3/I3,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5726062143310082E-2</v>
       </c>
       <c r="M3" s="48">
-        <f>IFERROR(H3/G3,0)</f>
+        <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -5062,11 +5062,11 @@
       </c>
       <c r="K4" s="46"/>
       <c r="L4" s="45">
-        <f>IFERROR(B4/I4,0)</f>
+        <f t="shared" si="0"/>
         <v>0.10581335775096198</v>
       </c>
       <c r="M4" s="48">
-        <f>IFERROR(H4/G4,0)</f>
+        <f t="shared" si="1"/>
         <v>4.3664996420901936E-2</v>
       </c>
     </row>
@@ -5099,11 +5099,11 @@
       </c>
       <c r="K5" s="47"/>
       <c r="L5" s="45">
-        <f>IFERROR(B5/I5,0)</f>
+        <f t="shared" si="0"/>
         <v>6.0188349029085757E-2</v>
       </c>
       <c r="M5" s="48">
-        <f>IFERROR(H5/G5,0)</f>
+        <f t="shared" si="1"/>
         <v>2.4026512013256007E-2</v>
       </c>
     </row>
@@ -5140,11 +5140,11 @@
       </c>
       <c r="K6" s="47"/>
       <c r="L6" s="45">
-        <f>IFERROR(B6/I6,0)</f>
+        <f t="shared" si="0"/>
         <v>7.4932957649007037E-2</v>
       </c>
       <c r="M6" s="48">
-        <f>IFERROR(H6/G6,0)</f>
+        <f t="shared" si="1"/>
         <v>4.0671400903808906E-2</v>
       </c>
     </row>
@@ -5177,11 +5177,11 @@
       </c>
       <c r="K7" s="47"/>
       <c r="L7" s="45">
-        <f>IFERROR(B7/I7,0)</f>
+        <f t="shared" si="0"/>
         <v>0.19915334696020284</v>
       </c>
       <c r="M7" s="48">
-        <f>IFERROR(H7/G7,0)</f>
+        <f t="shared" si="1"/>
         <v>5.1799007444168738E-2</v>
       </c>
     </row>
@@ -5214,11 +5214,11 @@
       </c>
       <c r="K8" s="46"/>
       <c r="L8" s="45">
-        <f>IFERROR(B8/I8,0)</f>
+        <f t="shared" si="0"/>
         <v>0.2781142605902357</v>
       </c>
       <c r="M8" s="48">
-        <f>IFERROR(H8/G8,0)</f>
+        <f t="shared" si="1"/>
         <v>8.7705107464756182E-2</v>
       </c>
     </row>
@@ -5251,11 +5251,11 @@
       </c>
       <c r="K9" s="47"/>
       <c r="L9" s="45">
-        <f>IFERROR(B9/I9,0)</f>
+        <f t="shared" si="0"/>
         <v>0.21830134502040199</v>
       </c>
       <c r="M9" s="48">
-        <f>IFERROR(H9/G9,0)</f>
+        <f t="shared" si="1"/>
         <v>3.3360723089564503E-2</v>
       </c>
     </row>
@@ -5288,11 +5288,11 @@
       </c>
       <c r="K10" s="47"/>
       <c r="L10" s="45">
-        <f>IFERROR(B10/I10,0)</f>
+        <f t="shared" si="0"/>
         <v>0.21857989113032342</v>
       </c>
       <c r="M10" s="48">
-        <f>IFERROR(H10/G10,0)</f>
+        <f t="shared" si="1"/>
         <v>5.0764602657307596E-2</v>
       </c>
     </row>
@@ -5325,11 +5325,11 @@
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="45">
-        <f>IFERROR(B11/I11,0)</f>
+        <f t="shared" si="0"/>
         <v>7.8841505793508362E-2</v>
       </c>
       <c r="M11" s="48">
-        <f>IFERROR(H11/G11,0)</f>
+        <f t="shared" si="1"/>
         <v>4.065040650406504E-2</v>
       </c>
     </row>
@@ -5364,11 +5364,11 @@
       </c>
       <c r="K12" s="46"/>
       <c r="L12" s="45">
-        <f>IFERROR(B12/I12,0)</f>
+        <f t="shared" si="0"/>
         <v>0.15067822099864306</v>
       </c>
       <c r="M12" s="48">
-        <f>IFERROR(H12/G12,0)</f>
+        <f t="shared" si="1"/>
         <v>4.3187144291931705E-2</v>
       </c>
     </row>
@@ -5395,11 +5395,11 @@
       <c r="J13" s="2"/>
       <c r="K13" s="47"/>
       <c r="L13" s="45">
-        <f>IFERROR(B13/I13,0)</f>
+        <f t="shared" si="0"/>
         <v>0.24628099173553719</v>
       </c>
       <c r="M13" s="48">
-        <f>IFERROR(H13/G13,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5432,11 +5432,11 @@
       </c>
       <c r="K14" s="47"/>
       <c r="L14" s="45">
-        <f>IFERROR(B14/I14,0)</f>
+        <f t="shared" si="0"/>
         <v>1.7428587337825045E-2</v>
       </c>
       <c r="M14" s="48">
-        <f>IFERROR(H14/G14,0)</f>
+        <f t="shared" si="1"/>
         <v>2.7272727272727271E-2</v>
       </c>
     </row>
@@ -5469,11 +5469,11 @@
       </c>
       <c r="K15" s="47"/>
       <c r="L15" s="45">
-        <f>IFERROR(B15/I15,0)</f>
+        <f t="shared" si="0"/>
         <v>7.0251969529266226E-2</v>
       </c>
       <c r="M15" s="48">
-        <f>IFERROR(H15/G15,0)</f>
+        <f t="shared" si="1"/>
         <v>3.0492572322126661E-2</v>
       </c>
     </row>
@@ -5506,11 +5506,11 @@
       </c>
       <c r="K16" s="46"/>
       <c r="L16" s="45">
-        <f>IFERROR(B16/I16,0)</f>
+        <f t="shared" si="0"/>
         <v>0.18887228035210099</v>
       </c>
       <c r="M16" s="48">
-        <f>IFERROR(H16/G16,0)</f>
+        <f t="shared" si="1"/>
         <v>4.3592634347989476E-2</v>
       </c>
     </row>
@@ -5543,11 +5543,11 @@
       </c>
       <c r="K17" s="46"/>
       <c r="L17" s="45">
-        <f>IFERROR(B17/I17,0)</f>
+        <f t="shared" si="0"/>
         <v>0.18149980082326383</v>
       </c>
       <c r="M17" s="48">
-        <f>IFERROR(H17/G17,0)</f>
+        <f t="shared" si="1"/>
         <v>6.2822458270106227E-2</v>
       </c>
     </row>
@@ -5580,11 +5580,11 @@
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="45">
-        <f>IFERROR(B18/I18,0)</f>
+        <f t="shared" si="0"/>
         <v>0.16469582561618465</v>
       </c>
       <c r="M18" s="48">
-        <f>IFERROR(H18/G18,0)</f>
+        <f t="shared" si="1"/>
         <v>2.1077988557663355E-2</v>
       </c>
     </row>
@@ -5617,11 +5617,11 @@
       </c>
       <c r="K19" s="47"/>
       <c r="L19" s="45">
-        <f>IFERROR(B19/I19,0)</f>
+        <f t="shared" si="0"/>
         <v>0.14230422187396116</v>
       </c>
       <c r="M19" s="48">
-        <f>IFERROR(H19/G19,0)</f>
+        <f t="shared" si="1"/>
         <v>2.7184466019417475E-2</v>
       </c>
     </row>
@@ -5654,11 +5654,11 @@
       </c>
       <c r="K20" s="47"/>
       <c r="L20" s="45">
-        <f>IFERROR(B20/I20,0)</f>
+        <f t="shared" si="0"/>
         <v>7.5493301782374719E-2</v>
       </c>
       <c r="M20" s="48">
-        <f>IFERROR(H20/G20,0)</f>
+        <f t="shared" si="1"/>
         <v>4.790419161676647E-2</v>
       </c>
     </row>
@@ -5691,11 +5691,11 @@
       </c>
       <c r="K21" s="47"/>
       <c r="L21" s="45">
-        <f>IFERROR(B21/I21,0)</f>
+        <f t="shared" si="0"/>
         <v>0.15615496835703133</v>
       </c>
       <c r="M21" s="48">
-        <f>IFERROR(H21/G21,0)</f>
+        <f t="shared" si="1"/>
         <v>7.1340902117213875E-2</v>
       </c>
     </row>
@@ -5728,11 +5728,11 @@
       </c>
       <c r="K22" s="47"/>
       <c r="L22" s="45">
-        <f>IFERROR(B22/I22,0)</f>
+        <f t="shared" si="0"/>
         <v>5.3713698278077614E-2</v>
       </c>
       <c r="M22" s="48">
-        <f>IFERROR(H22/G22,0)</f>
+        <f t="shared" si="1"/>
         <v>4.9946865037194477E-2</v>
       </c>
     </row>
@@ -5765,11 +5765,11 @@
       </c>
       <c r="K23" s="47"/>
       <c r="L23" s="45">
-        <f>IFERROR(B23/I23,0)</f>
+        <f t="shared" si="0"/>
         <v>0.19556009221453768</v>
       </c>
       <c r="M23" s="48">
-        <f>IFERROR(H23/G23,0)</f>
+        <f t="shared" si="1"/>
         <v>5.0948625026646772E-2</v>
       </c>
     </row>
@@ -5802,11 +5802,11 @@
       </c>
       <c r="K24" s="46"/>
       <c r="L24" s="45">
-        <f>IFERROR(B24/I24,0)</f>
+        <f t="shared" si="0"/>
         <v>0.21206339672416891</v>
       </c>
       <c r="M24" s="48">
-        <f>IFERROR(H24/G24,0)</f>
+        <f t="shared" si="1"/>
         <v>6.1356092935040303E-2</v>
       </c>
     </row>
@@ -5839,11 +5839,11 @@
       </c>
       <c r="K25" s="47"/>
       <c r="L25" s="45">
-        <f>IFERROR(B25/I25,0)</f>
+        <f t="shared" si="0"/>
         <v>0.18791369667040653</v>
       </c>
       <c r="M25" s="48">
-        <f>IFERROR(H25/G25,0)</f>
+        <f t="shared" si="1"/>
         <v>9.4364640883977904E-2</v>
       </c>
     </row>
@@ -5876,11 +5876,11 @@
       </c>
       <c r="K26" s="46"/>
       <c r="L26" s="45">
-        <f>IFERROR(B26/I26,0)</f>
+        <f t="shared" si="0"/>
         <v>9.2017762141753903E-2</v>
       </c>
       <c r="M26" s="48">
-        <f>IFERROR(H26/G26,0)</f>
+        <f t="shared" si="1"/>
         <v>5.6701030927835051E-2</v>
       </c>
     </row>
@@ -5913,11 +5913,11 @@
       </c>
       <c r="K27" s="46"/>
       <c r="L27" s="45">
-        <f>IFERROR(B27/I27,0)</f>
+        <f t="shared" si="0"/>
         <v>0.10489614982318075</v>
       </c>
       <c r="M27" s="48">
-        <f>IFERROR(H27/G27,0)</f>
+        <f t="shared" si="1"/>
         <v>4.4341965235899256E-2</v>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="45">
-        <f>IFERROR(B28/I28,0)</f>
+        <f t="shared" si="0"/>
         <v>8.942116538958908E-2</v>
       </c>
       <c r="M28" s="49">
@@ -5987,11 +5987,11 @@
       </c>
       <c r="K29" s="47"/>
       <c r="L29" s="45">
-        <f>IFERROR(B29/I29,0)</f>
+        <f t="shared" si="0"/>
         <v>2.3193260251725537E-2</v>
       </c>
       <c r="M29" s="48">
-        <f>IFERROR(H29/G29,0)</f>
+        <f t="shared" ref="M29:M56" si="2">IFERROR(H29/G29,0)</f>
         <v>3.4168564920273349E-2</v>
       </c>
     </row>
@@ -6024,11 +6024,11 @@
       </c>
       <c r="K30" s="47"/>
       <c r="L30" s="45">
-        <f>IFERROR(B30/I30,0)</f>
+        <f t="shared" si="0"/>
         <v>0.17898966401438049</v>
       </c>
       <c r="M30" s="48">
-        <f>IFERROR(H30/G30,0)</f>
+        <f t="shared" si="2"/>
         <v>1.2658227848101266E-2</v>
       </c>
     </row>
@@ -6061,11 +6061,11 @@
       </c>
       <c r="K31" s="47"/>
       <c r="L31" s="45">
-        <f>IFERROR(B31/I31,0)</f>
+        <f t="shared" si="0"/>
         <v>9.2699296120477989E-2</v>
       </c>
       <c r="M31" s="48">
-        <f>IFERROR(H31/G31,0)</f>
+        <f t="shared" si="2"/>
         <v>5.0593701600413009E-2</v>
       </c>
     </row>
@@ -6098,11 +6098,11 @@
       </c>
       <c r="K32" s="46"/>
       <c r="L32" s="45">
-        <f>IFERROR(B32/I32,0)</f>
+        <f t="shared" si="0"/>
         <v>8.8857179919574522E-2</v>
       </c>
       <c r="M32" s="48">
-        <f>IFERROR(H32/G32,0)</f>
+        <f t="shared" si="2"/>
         <v>4.0706228543403632E-2</v>
       </c>
     </row>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="K33" s="47"/>
       <c r="L33" s="45">
-        <f>IFERROR(B33/I33,0)</f>
+        <f t="shared" si="0"/>
         <v>0.46490477172116684</v>
       </c>
       <c r="M33" s="48">
-        <f>IFERROR(H33/G33,0)</f>
+        <f t="shared" si="2"/>
         <v>6.4414925572391701E-2</v>
       </c>
     </row>
@@ -6172,11 +6172,11 @@
       </c>
       <c r="K34" s="47"/>
       <c r="L34" s="45">
-        <f>IFERROR(B34/I34,0)</f>
+        <f t="shared" ref="L34:L56" si="3">IFERROR(B34/I34,0)</f>
         <v>5.0079361374352274E-2</v>
       </c>
       <c r="M34" s="48">
-        <f>IFERROR(H34/G34,0)</f>
+        <f t="shared" si="2"/>
         <v>3.9492930277913216E-2</v>
       </c>
     </row>
@@ -6209,11 +6209,11 @@
       </c>
       <c r="K35" s="47"/>
       <c r="L35" s="45">
-        <f>IFERROR(B35/I35,0)</f>
+        <f t="shared" si="3"/>
         <v>0.31582949860832393</v>
       </c>
       <c r="M35" s="48">
-        <f>IFERROR(H35/G35,0)</f>
+        <f t="shared" si="2"/>
         <v>7.7828107535737392E-2</v>
       </c>
     </row>
@@ -6246,11 +6246,11 @@
       </c>
       <c r="K36" s="44"/>
       <c r="L36" s="45">
-        <f>IFERROR(B36/I36,0)</f>
+        <f t="shared" si="3"/>
         <v>7.936430734062086E-2</v>
       </c>
       <c r="M36" s="48">
-        <f>IFERROR(H36/G36,0)</f>
+        <f t="shared" si="2"/>
         <v>3.8132295719844361E-2</v>
       </c>
     </row>
@@ -6283,11 +6283,11 @@
       </c>
       <c r="K37" s="47"/>
       <c r="L37" s="45">
-        <f>IFERROR(B37/I37,0)</f>
+        <f t="shared" si="3"/>
         <v>3.4246220749637603E-2</v>
       </c>
       <c r="M37" s="48">
-        <f>IFERROR(H37/G37,0)</f>
+        <f t="shared" si="2"/>
         <v>2.3308698123934053E-2</v>
       </c>
     </row>
@@ -6314,11 +6314,11 @@
       <c r="J38" s="2"/>
       <c r="K38" s="47"/>
       <c r="L38" s="45">
-        <f>IFERROR(B38/I38,0)</f>
+        <f t="shared" si="3"/>
         <v>1.5822784810126583E-2</v>
       </c>
       <c r="M38" s="48">
-        <f>IFERROR(H38/G38,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="K39" s="46"/>
       <c r="L39" s="45">
-        <f>IFERROR(B39/I39,0)</f>
+        <f t="shared" si="3"/>
         <v>0.12772229753328321</v>
       </c>
       <c r="M39" s="48">
-        <f>IFERROR(H39/G39,0)</f>
+        <f t="shared" si="2"/>
         <v>5.6664867781975173E-2</v>
       </c>
     </row>
@@ -6388,11 +6388,11 @@
       </c>
       <c r="K40" s="47"/>
       <c r="L40" s="45">
-        <f>IFERROR(B40/I40,0)</f>
+        <f t="shared" si="3"/>
         <v>4.8033935901393793E-2</v>
       </c>
       <c r="M40" s="48">
-        <f>IFERROR(H40/G40,0)</f>
+        <f t="shared" si="2"/>
         <v>6.0634328358208957E-2</v>
       </c>
     </row>
@@ -6425,11 +6425,11 @@
       </c>
       <c r="K41" s="46"/>
       <c r="L41" s="45">
-        <f>IFERROR(B41/I41,0)</f>
+        <f t="shared" si="3"/>
         <v>4.2915802022164336E-2</v>
       </c>
       <c r="M41" s="48">
-        <f>IFERROR(H41/G41,0)</f>
+        <f t="shared" si="2"/>
         <v>3.9215686274509803E-2</v>
       </c>
     </row>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="K42" s="47"/>
       <c r="L42" s="45">
-        <f>IFERROR(B42/I42,0)</f>
+        <f t="shared" si="3"/>
         <v>0.20593442868932402</v>
       </c>
       <c r="M42" s="48">
-        <f>IFERROR(H42/G42,0)</f>
+        <f t="shared" si="2"/>
         <v>6.1043802423112768E-2</v>
       </c>
     </row>
@@ -6499,11 +6499,11 @@
       </c>
       <c r="K43" s="46"/>
       <c r="L43" s="45">
-        <f>IFERROR(B43/I43,0)</f>
+        <f t="shared" si="3"/>
         <v>0.15112885885424665</v>
       </c>
       <c r="M43" s="48">
-        <f>IFERROR(H43/G43,0)</f>
+        <f t="shared" si="2"/>
         <v>4.9913941480206538E-2</v>
       </c>
     </row>
@@ -6536,11 +6536,11 @@
       </c>
       <c r="K44" s="47"/>
       <c r="L44" s="45">
-        <f>IFERROR(B44/I44,0)</f>
+        <f t="shared" si="3"/>
         <v>0.12857016869716403</v>
       </c>
       <c r="M44" s="48">
-        <f>IFERROR(H44/G44,0)</f>
+        <f t="shared" si="2"/>
         <v>3.6239387036653553E-2</v>
       </c>
     </row>
@@ -6573,11 +6573,11 @@
       </c>
       <c r="K45" s="47"/>
       <c r="L45" s="45">
-        <f>IFERROR(B45/I45,0)</f>
+        <f t="shared" si="3"/>
         <v>8.9517565370021424E-2</v>
       </c>
       <c r="M45" s="48">
-        <f>IFERROR(H45/G45,0)</f>
+        <f t="shared" si="2"/>
         <v>4.4285714285714282E-2</v>
       </c>
     </row>
@@ -6610,11 +6610,11 @@
       </c>
       <c r="K46" s="47"/>
       <c r="L46" s="45">
-        <f>IFERROR(B46/I46,0)</f>
+        <f t="shared" si="3"/>
         <v>0.14609399642519189</v>
       </c>
       <c r="M46" s="48">
-        <f>IFERROR(H46/G46,0)</f>
+        <f t="shared" si="2"/>
         <v>1.0575427682737169E-2</v>
       </c>
     </row>
@@ -6647,11 +6647,11 @@
       </c>
       <c r="K47" s="46"/>
       <c r="L47" s="45">
-        <f>IFERROR(B47/I47,0)</f>
+        <f t="shared" si="3"/>
         <v>6.1373573872418E-2</v>
       </c>
       <c r="M47" s="48">
-        <f>IFERROR(H47/G47,0)</f>
+        <f t="shared" si="2"/>
         <v>1.717557251908397E-2</v>
       </c>
     </row>
@@ -6684,42 +6684,42 @@
       </c>
       <c r="K48" s="46"/>
       <c r="L48" s="45">
-        <f>IFERROR(B48/I48,0)</f>
+        <f t="shared" si="3"/>
         <v>7.8517392502511316E-2</v>
       </c>
       <c r="M48" s="48">
-        <f>IFERROR(H48/G48,0)</f>
+        <f t="shared" si="2"/>
         <v>2.8413575374901343E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="59">
+      <c r="B49" s="57">
         <v>66</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59">
+      <c r="C49" s="57"/>
+      <c r="D49" s="57">
         <v>4</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59">
+      <c r="E49" s="57"/>
+      <c r="F49" s="57">
         <v>11</v>
       </c>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="60">
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="58">
         <v>1046</v>
       </c>
-      <c r="J49" s="59"/>
+      <c r="J49" s="57"/>
       <c r="K49" s="47"/>
       <c r="L49" s="45">
-        <f>IFERROR(B49/I49,0)</f>
+        <f t="shared" si="3"/>
         <v>6.3097514340344163E-2</v>
       </c>
       <c r="M49" s="48">
-        <f>IFERROR(H49/G49,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6752,11 +6752,11 @@
       </c>
       <c r="K50" s="46"/>
       <c r="L50" s="45">
-        <f>IFERROR(B50/I50,0)</f>
+        <f t="shared" si="3"/>
         <v>4.270927161417383E-2</v>
       </c>
       <c r="M50" s="48">
-        <f>IFERROR(H50/G50,0)</f>
+        <f t="shared" si="2"/>
         <v>1.0342950462710943E-2</v>
       </c>
     </row>
@@ -6789,11 +6789,11 @@
       </c>
       <c r="K51" s="47"/>
       <c r="L51" s="45">
-        <f>IFERROR(B51/I51,0)</f>
+        <f t="shared" si="3"/>
         <v>5.0794361154620722E-2</v>
       </c>
       <c r="M51" s="48">
-        <f>IFERROR(H51/G51,0)</f>
+        <f t="shared" si="2"/>
         <v>5.712319339298004E-2</v>
       </c>
       <c r="N51" s="37"/>
@@ -6827,11 +6827,11 @@
       </c>
       <c r="K52" s="47"/>
       <c r="L52" s="45">
-        <f>IFERROR(B52/I52,0)</f>
+        <f t="shared" si="3"/>
         <v>0.15832668949022183</v>
       </c>
       <c r="M52" s="48">
-        <f>IFERROR(H52/G52,0)</f>
+        <f t="shared" si="2"/>
         <v>3.5313668466971336E-2</v>
       </c>
     </row>
@@ -6864,11 +6864,11 @@
       </c>
       <c r="K53" s="47"/>
       <c r="L53" s="45">
-        <f>IFERROR(B53/I53,0)</f>
+        <f t="shared" si="3"/>
         <v>7.607095824618483E-2</v>
       </c>
       <c r="M53" s="48">
-        <f>IFERROR(H53/G53,0)</f>
+        <f t="shared" si="2"/>
         <v>5.286151157710791E-2</v>
       </c>
     </row>
@@ -6901,11 +6901,11 @@
       </c>
       <c r="K54" s="47"/>
       <c r="L54" s="45">
-        <f>IFERROR(B54/I54,0)</f>
+        <f t="shared" si="3"/>
         <v>2.2873942349060664E-2</v>
       </c>
       <c r="M54" s="48">
-        <f>IFERROR(H54/G54,0)</f>
+        <f t="shared" si="2"/>
         <v>4.0114613180515762E-2</v>
       </c>
     </row>
@@ -6938,11 +6938,11 @@
       </c>
       <c r="K55" s="46"/>
       <c r="L55" s="45">
-        <f>IFERROR(B55/I55,0)</f>
+        <f t="shared" si="3"/>
         <v>9.2021876001530084E-2</v>
       </c>
       <c r="M55" s="48">
-        <f>IFERROR(H55/G55,0)</f>
+        <f t="shared" si="2"/>
         <v>4.0909090909090909E-2</v>
       </c>
     </row>
@@ -6975,11 +6975,11 @@
       </c>
       <c r="K56" s="54"/>
       <c r="L56" s="45">
-        <f>IFERROR(B56/I56,0)</f>
+        <f t="shared" si="3"/>
         <v>5.2552677604730577E-2</v>
       </c>
       <c r="M56" s="48">
-        <f>IFERROR(H56/G56,0)</f>
+        <f t="shared" si="2"/>
         <v>1.107011070110701E-2</v>
       </c>
     </row>
@@ -7566,10 +7566,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="66">
+      <c r="B49" s="64">
         <v>4</v>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F85D94-125B-480E-B197-8044C0D76B30}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C2:C54"/>
     </sheetView>
   </sheetViews>
